--- a/sofaplayer/Premier_League/Leeds United_stats.xlsx
+++ b/sofaplayer/Premier_League/Leeds United_stats.xlsx
@@ -6368,47 +6368,47 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Joe Rodon</t>
+          <t>Gabriel Gudmundsson</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>828640</v>
+        <v>834308</v>
       </c>
       <c r="E17" t="n">
-        <v>6.6791666666667</v>
+        <v>6.592</v>
       </c>
       <c r="F17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G17" t="n">
         <v>24</v>
       </c>
       <c r="H17" t="n">
-        <v>2100</v>
+        <v>2104</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.9752</v>
+        <v>0.9739</v>
       </c>
       <c r="L17" t="n">
-        <v>1050</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>13</v>
       </c>
       <c r="N17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.384615384615</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -6420,13 +6420,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -6435,121 +6435,121 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.25600222</v>
+        <v>1.97568193</v>
       </c>
       <c r="AB17" t="n">
-        <v>1440</v>
+        <v>1373</v>
       </c>
       <c r="AC17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD17" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="n">
-        <v>997</v>
+        <v>592</v>
       </c>
       <c r="AF17" t="n">
-        <v>88.85918003565099</v>
+        <v>76.683937823834</v>
       </c>
       <c r="AG17" t="n">
-        <v>1122</v>
+        <v>772</v>
       </c>
       <c r="AH17" t="n">
-        <v>689</v>
+        <v>311</v>
       </c>
       <c r="AI17" t="n">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="AJ17" t="n">
+        <v>136</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>24.719101123596</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>31.34328358209</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>56</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR17" t="n">
         <v>93</v>
       </c>
-      <c r="AK17" t="n">
-        <v>31</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>43.661971830986</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>27</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>61</v>
-      </c>
       <c r="AS17" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="AT17" t="n">
-        <v>133</v>
+        <v>64</v>
       </c>
       <c r="AU17" t="n">
         <v>4</v>
       </c>
       <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>33</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>54.098360655738</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>142</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>53.584905660377</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>128</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>56.140350877193</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>14</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>37.837837837838</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>362</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>27</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>39</v>
+      </c>
+      <c r="BJ17" t="n">
         <v>2</v>
       </c>
-      <c r="AW17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>100</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>104</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>58.426966292135</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>41</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>69.491525423729</v>
-      </c>
-      <c r="BE17" t="n">
-        <v>63</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>52.941176470588</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>152</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>10</v>
-      </c>
-      <c r="BI17" t="n">
-        <v>15</v>
-      </c>
-      <c r="BJ17" t="n">
-        <v>0</v>
-      </c>
       <c r="BK17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BL17" t="n">
         <v>0</v>
@@ -6561,28 +6561,28 @@
         <v>3</v>
       </c>
       <c r="BO17" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="BP17" t="n">
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>160.3</v>
+        <v>164.8</v>
       </c>
       <c r="BR17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BS17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BT17" t="n">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
       </c>
       <c r="BV17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BW17" t="n">
         <v>0</v>
@@ -6594,22 +6594,22 @@
         <v>0</v>
       </c>
       <c r="BZ17" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="CA17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CB17" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="CC17" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="CD17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CE17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CF17" t="n">
         <v>0</v>
@@ -6624,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="CK17" t="n">
         <v>5</v>
@@ -6648,19 +6648,19 @@
         <v>0</v>
       </c>
       <c r="CR17" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="CS17" t="n">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="CT17" t="n">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="CU17" t="n">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="CV17" t="n">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="CW17" t="n">
         <v>0</v>
@@ -6672,13 +6672,13 @@
         <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="DA17" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="DB17" t="n">
-        <v>59.259259259259</v>
+        <v>67.857142857143</v>
       </c>
       <c r="DC17" t="n">
         <v>0</v>
@@ -6690,19 +6690,19 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>734</v>
+        <v>370</v>
       </c>
       <c r="DG17" t="n">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="DH17" t="n">
         <v>0</v>
       </c>
       <c r="DI17" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="DJ17" t="n">
-        <v>2152581</v>
+        <v>2152603</v>
       </c>
       <c r="DK17" t="inlineStr">
         <is>
@@ -6724,47 +6724,47 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Gabriel Gudmundsson</t>
+          <t>Joe Rodon</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>834308</v>
+        <v>828640</v>
       </c>
       <c r="E18" t="n">
-        <v>6.592</v>
+        <v>6.6791666666667</v>
       </c>
       <c r="F18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G18" t="n">
         <v>24</v>
       </c>
       <c r="H18" t="n">
-        <v>2104</v>
+        <v>2100</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9739</v>
+        <v>0.9752</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="M18" t="n">
         <v>13</v>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>15.384615384615</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -6776,13 +6776,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -6791,76 +6791,76 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18" t="n">
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.97568193</v>
+        <v>0.25600222</v>
       </c>
       <c r="AB18" t="n">
-        <v>1373</v>
+        <v>1440</v>
       </c>
       <c r="AC18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD18" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="AE18" t="n">
-        <v>592</v>
+        <v>997</v>
       </c>
       <c r="AF18" t="n">
-        <v>76.683937823834</v>
+        <v>88.85918003565099</v>
       </c>
       <c r="AG18" t="n">
-        <v>772</v>
+        <v>1122</v>
       </c>
       <c r="AH18" t="n">
-        <v>311</v>
+        <v>689</v>
       </c>
       <c r="AI18" t="n">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="AJ18" t="n">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="AK18" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="AL18" t="n">
-        <v>24.719101123596</v>
+        <v>43.661971830986</v>
       </c>
       <c r="AM18" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AN18" t="n">
-        <v>31.34328358209</v>
+        <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AP18" t="n">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="AQ18" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AR18" t="n">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="AS18" t="n">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="AT18" t="n">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="AU18" t="n">
         <v>4</v>
       </c>
       <c r="AV18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW18" t="n">
         <v>1</v>
@@ -6869,43 +6869,43 @@
         <v>0</v>
       </c>
       <c r="AY18" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="AZ18" t="n">
-        <v>54.098360655738</v>
+        <v>100</v>
       </c>
       <c r="BA18" t="n">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="BB18" t="n">
-        <v>53.584905660377</v>
+        <v>58.426966292135</v>
       </c>
       <c r="BC18" t="n">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="BD18" t="n">
-        <v>56.140350877193</v>
+        <v>69.491525423729</v>
       </c>
       <c r="BE18" t="n">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="BF18" t="n">
-        <v>37.837837837838</v>
+        <v>52.941176470588</v>
       </c>
       <c r="BG18" t="n">
-        <v>362</v>
+        <v>152</v>
       </c>
       <c r="BH18" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="BI18" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="BJ18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BK18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BL18" t="n">
         <v>0</v>
@@ -6917,28 +6917,28 @@
         <v>3</v>
       </c>
       <c r="BO18" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="BP18" t="n">
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>164.8</v>
+        <v>160.3</v>
       </c>
       <c r="BR18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BS18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BT18" t="n">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
       </c>
       <c r="BV18" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BW18" t="n">
         <v>0</v>
@@ -6950,22 +6950,22 @@
         <v>0</v>
       </c>
       <c r="BZ18" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="CA18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CB18" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="CC18" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="CD18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="CE18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF18" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="CJ18" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="CK18" t="n">
         <v>5</v>
@@ -7004,19 +7004,19 @@
         <v>0</v>
       </c>
       <c r="CR18" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="CS18" t="n">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="CT18" t="n">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="CU18" t="n">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="CV18" t="n">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="CW18" t="n">
         <v>0</v>
@@ -7028,13 +7028,13 @@
         <v>0</v>
       </c>
       <c r="CZ18" t="n">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="DA18" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="DB18" t="n">
-        <v>67.857142857143</v>
+        <v>59.259259259259</v>
       </c>
       <c r="DC18" t="n">
         <v>0</v>
@@ -7046,19 +7046,19 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>370</v>
+        <v>734</v>
       </c>
       <c r="DG18" t="n">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="DH18" t="n">
         <v>0</v>
       </c>
       <c r="DI18" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="DJ18" t="n">
-        <v>2152603</v>
+        <v>2152581</v>
       </c>
       <c r="DK18" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         <v>855</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
